--- a/python/viral_stats.xlsx
+++ b/python/viral_stats.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
         <v>0.0002136205294284178</v>
       </c>
       <c r="C2" t="n">
-        <v>0.274143706955938</v>
+        <v>0.2169117502652002</v>
       </c>
       <c r="D2" t="n">
         <v>99.87080368030338</v>
@@ -483,13 +483,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.133995953384385e-05</v>
+        <v>2.188843153391821e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>1.706868265035483</v>
+        <v>1.390341358683242</v>
       </c>
       <c r="D3" t="n">
-        <v>99.74917586259257</v>
+        <v>99.51994450067085</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005186715405158328</v>
+        <v>0.0007968660765813598</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01114000902154789</v>
+        <v>0.2243299728555265</v>
       </c>
       <c r="D4" t="n">
-        <v>7.2469368373655</v>
+        <v>94.59855314105506</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -528,10 +528,10 @@
         <v>0.0004299320503288188</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2640721598524928</v>
+        <v>0.1820734222629278</v>
       </c>
       <c r="D5" t="n">
-        <v>96.53460181510755</v>
+        <v>95.26959396406832</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -570,10 +570,10 @@
         <v>0.0009998384141787946</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07103731133804103</v>
+        <v>0.1066681605823382</v>
       </c>
       <c r="D7" t="n">
-        <v>98.11188315305479</v>
+        <v>99.83255020088824</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.488070476871624e-07</v>
+        <v>3.448084744793176e-07</v>
       </c>
       <c r="C10" t="n">
         <v>78.09978556354073</v>
@@ -651,10 +651,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.000470837382910405</v>
+        <v>0.0003129920384534181</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3459126179849723</v>
+        <v>0.2870517733573548</v>
       </c>
       <c r="D11" t="n">
         <v>99.18377681054048</v>
@@ -672,13 +672,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.000399485142570945</v>
+        <v>0.0009985235174478579</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2244294221635699</v>
+        <v>1.788687678502623</v>
       </c>
       <c r="D12" t="n">
-        <v>99.69926398194701</v>
+        <v>99.4396382418832</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.908920721606635e-05</v>
+        <v>2.437528256060507e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.599653303666846</v>
+        <v>0.1573159265597096</v>
       </c>
       <c r="D13" t="n">
-        <v>99.94067906895096</v>
+        <v>32.03998380882238</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -714,38 +714,38 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0009998384141787946</v>
+        <v>0.000122294431077752</v>
       </c>
       <c r="C14" t="n">
-        <v>78.09978556354073</v>
+        <v>0.3306670169052979</v>
       </c>
       <c r="D14" t="n">
-        <v>99.94067906895096</v>
+        <v>70.928003769589</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Population</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mean</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.619914999039293e-05</v>
+        <v>0.0009998384141787946</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07425826120134446</v>
+        <v>78.09978556354073</v>
       </c>
       <c r="D15" t="n">
-        <v>36.71360284374281</v>
+        <v>99.87080368030338</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>103.0</t>
+          <t>Population</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.048911560152309e-05</v>
+        <v>9.14465464334209e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3327191145923351</v>
+        <v>0.05930064096770424</v>
       </c>
       <c r="D16" t="n">
-        <v>36.07604624462792</v>
+        <v>31.36812206138073</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>107.0</t>
+          <t>103.0</t>
         </is>
       </c>
     </row>
@@ -777,17 +777,17 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0003788904204111096</v>
+        <v>9.089667796942155e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>0.009068338653186635</v>
+        <v>0.3708158702774931</v>
       </c>
       <c r="D17" t="n">
-        <v>5.751312069964698</v>
+        <v>40.26787054763925</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>110.0</t>
+          <t>107.0</t>
         </is>
       </c>
     </row>
@@ -798,17 +798,17 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0001450303530200136</v>
+        <v>0.0002102390329985993</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0520001113117423</v>
+        <v>0.0450333886627086</v>
       </c>
       <c r="D18" t="n">
-        <v>26.478130578578</v>
+        <v>23.59684510425309</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>111.0</t>
+          <t>110.0</t>
         </is>
       </c>
     </row>
@@ -819,17 +819,17 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.799512530251412e-06</v>
+        <v>0.0001740903303904969</v>
       </c>
       <c r="C19" t="n">
-        <v>0.483772238253482</v>
+        <v>0.04149720126057699</v>
       </c>
       <c r="D19" t="n">
-        <v>30.17233351050965</v>
+        <v>20.99345714094065</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>112.0</t>
+          <t>111.0</t>
         </is>
       </c>
     </row>
@@ -840,17 +840,17 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0005521671891516146</v>
+        <v>7.675795132245653e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01740407907031823</v>
+        <v>0.4874581958528399</v>
       </c>
       <c r="D20" t="n">
-        <v>33.3195827075367</v>
+        <v>29.26625003769355</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>204.0</t>
+          <t>112.0</t>
         </is>
       </c>
     </row>
@@ -861,17 +861,17 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8.179022399513246e-05</v>
+        <v>0.0005350813768359102</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1281672356163571</v>
+        <v>0.01981371366170774</v>
       </c>
       <c r="D21" t="n">
-        <v>33.77084411153182</v>
+        <v>35.03640272407134</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>207.0</t>
+          <t>204.0</t>
         </is>
       </c>
     </row>
@@ -882,17 +882,17 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.659561383953103e-06</v>
+        <v>8.204995264072844e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>2.99910027193969</v>
+        <v>0.1264480583238043</v>
       </c>
       <c r="D22" t="n">
-        <v>32.28925198491859</v>
+        <v>33.37321126981829</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>302.0</t>
+          <t>207.0</t>
         </is>
       </c>
     </row>
@@ -903,17 +903,17 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.631980468784922e-07</v>
+        <v>1.734486871401706e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>20.45442026631898</v>
+        <v>2.846064461853062</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97961940653638</v>
+        <v>30.60507583559396</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>307.0</t>
+          <t>302.0</t>
         </is>
       </c>
     </row>
@@ -924,17 +924,17 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0001246028991529348</v>
+        <v>2.290112152835659e-07</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06571243781580333</v>
+        <v>25.48930213565622</v>
       </c>
       <c r="D24" t="n">
-        <v>29.91699110183587</v>
+        <v>57.57095055522864</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>308.0</t>
+          <t>307.0</t>
         </is>
       </c>
     </row>
@@ -945,17 +945,17 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0001865733143018171</v>
+        <v>0.0001092430128452284</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07347110549830406</v>
+        <v>0.06696509558496611</v>
       </c>
       <c r="D25" t="n">
-        <v>43.55510050561327</v>
+        <v>30.99442207847288</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>311.0</t>
+          <t>308.0</t>
         </is>
       </c>
     </row>
@@ -966,17 +966,17 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.018966476602579e-05</v>
+        <v>0.0003117879136071574</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1077522751877053</v>
+        <v>0.1131628214694053</v>
       </c>
       <c r="D26" t="n">
-        <v>22.15397425931279</v>
+        <v>29.82728729323863</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>312.0</t>
+          <t>311.0</t>
         </is>
       </c>
     </row>
@@ -987,59 +987,59 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0001147668647072768</v>
+        <v>1.128349271894255e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7212371436479211</v>
+        <v>0.04927268983504454</v>
       </c>
       <c r="D27" t="n">
-        <v>32.37825868260705</v>
+        <v>10.34470491558468</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Population</t>
+          <t>312.0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Min</t>
+          <t>Mean</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.475881764388934e-05</v>
+        <v>6.560560598216944e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>0.008494672358586388</v>
+        <v>0.1109644286532751</v>
       </c>
       <c r="D28" t="n">
-        <v>5.040866922459952</v>
+        <v>30.28272849597327</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>103.0</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Min</t>
+          <t>Mean</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3.060867464921636e-06</v>
+        <v>0.0002018078370883216</v>
       </c>
       <c r="C29" t="n">
-        <v>0.03107838434510367</v>
+        <v>0.589905753357342</v>
       </c>
       <c r="D29" t="n">
-        <v>5.075239241067973</v>
+        <v>31.26463601959934</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>107.0</t>
+          <t>Population</t>
         </is>
       </c>
     </row>
@@ -1050,17 +1050,17 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0003146892597904999</v>
+        <v>2.943500937535852e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>0.006981921562057842</v>
+        <v>0.008494672358586388</v>
       </c>
       <c r="D30" t="n">
-        <v>5.015803695452109</v>
+        <v>5.040866922459952</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>110.0</t>
+          <t>103.0</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1071,17 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.808889982144612e-05</v>
+        <v>3.470155367349627e-06</v>
       </c>
       <c r="C31" t="n">
-        <v>0.006606535720554671</v>
+        <v>0.04676685373723496</v>
       </c>
       <c r="D31" t="n">
-        <v>5.002346619737624</v>
+        <v>6.403510296804213</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>111.0</t>
+          <t>107.0</t>
         </is>
       </c>
     </row>
@@ -1092,17 +1092,17 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.221162204755603e-06</v>
+        <v>5.670073753170522e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07846647511635711</v>
+        <v>0.004309545585684724</v>
       </c>
       <c r="D32" t="n">
-        <v>5.003727416671238</v>
+        <v>5.015803695452109</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>112.0</t>
+          <t>110.0</t>
         </is>
       </c>
     </row>
@@ -1113,17 +1113,17 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0002304465439738222</v>
+        <v>6.107530468038695e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>0.004114278401311359</v>
+        <v>0.006808352455435715</v>
       </c>
       <c r="D33" t="n">
-        <v>5.868970196039741</v>
+        <v>5.002346619737624</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>204.0</t>
+          <t>111.0</t>
         </is>
       </c>
     </row>
@@ -1134,17 +1134,17 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.19422396697803e-05</v>
+        <v>3.221162204755603e-06</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01974069138466678</v>
+        <v>0.07846647511635711</v>
       </c>
       <c r="D34" t="n">
-        <v>7.379195066156987</v>
+        <v>5.003727416671238</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>207.0</t>
+          <t>112.0</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.694357965067633e-07</v>
+        <v>0.0001641809955957396</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2818853966082606</v>
+        <v>0.003866181254180164</v>
       </c>
       <c r="D35" t="n">
-        <v>5.032837591816966</v>
+        <v>5.023617793125681</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>302.0</t>
+          <t>204.0</t>
         </is>
       </c>
     </row>
@@ -1176,17 +1176,17 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.000938792022022e-07</v>
+        <v>3.300551817207891e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>1.693139683826383</v>
+        <v>0.01974069138466678</v>
       </c>
       <c r="D36" t="n">
-        <v>5.132725494236492</v>
+        <v>7.379195066156987</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>307.0</t>
+          <t>207.0</t>
         </is>
       </c>
     </row>
@@ -1197,17 +1197,17 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.927389806305077e-05</v>
+        <v>6.720280464786671e-07</v>
       </c>
       <c r="C37" t="n">
-        <v>0.006029170080609394</v>
+        <v>0.2818853966082606</v>
       </c>
       <c r="D37" t="n">
-        <v>5.009070302561502</v>
+        <v>5.032837591816966</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>308.0</t>
+          <t>302.0</t>
         </is>
       </c>
     </row>
@@ -1218,17 +1218,17 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8.559201470005414e-05</v>
+        <v>1.000938792022022e-07</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01259171411704364</v>
+        <v>5.098562192029681</v>
       </c>
       <c r="D38" t="n">
-        <v>10.40406962946126</v>
+        <v>12.70357795253764</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>311.0</t>
+          <t>307.0</t>
         </is>
       </c>
     </row>
@@ -1239,17 +1239,17 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.689286091346431e-06</v>
+        <v>3.248228494714568e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01109868171513905</v>
+        <v>0.008096303859496164</v>
       </c>
       <c r="D39" t="n">
-        <v>5.034345509240398</v>
+        <v>5.009070302561502</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>312.0</t>
+          <t>308.0</t>
         </is>
       </c>
     </row>
@@ -1260,80 +1260,80 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.000938792022022e-07</v>
+        <v>1.034884173186314e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>0.004114278401311359</v>
+        <v>0.003677297853182784</v>
       </c>
       <c r="D40" t="n">
-        <v>5.002346619737624</v>
+        <v>5.29692649995404</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Population</t>
+          <t>311.0</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Shapiro-Wilk p-value</t>
-        </is>
-      </c>
-      <c r="B41" s="1" t="n">
-        <v>0.001630583354651899</v>
-      </c>
-      <c r="C41" s="1" t="n">
-        <v>1.293751722928532e-05</v>
-      </c>
-      <c r="D41" s="1" t="n">
-        <v>0.0006144463058167682</v>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>5.598009654879684e-06</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.01245902141616188</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5.034345509240398</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>103.0</t>
+          <t>312.0</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Shapiro-Wilk p-value</t>
-        </is>
-      </c>
-      <c r="B42" s="1" t="n">
-        <v>5.237582431397708e-13</v>
-      </c>
-      <c r="C42" s="1" t="n">
-        <v>3.81523598491016e-21</v>
-      </c>
-      <c r="D42" s="1" t="n">
-        <v>3.709242636324624e-17</v>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1.733510419581636e-05</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.01167290289506965</v>
+      </c>
+      <c r="D42" t="n">
+        <v>9.939900281674054</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>107.0</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Shapiro-Wilk p-value</t>
+          <t>Min</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1095656052925879</v>
+        <v>1.000938792022022e-07</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7838954896414172</v>
+        <v>0.003677297853182784</v>
       </c>
       <c r="D43" t="n">
-        <v>0.09390687223677303</v>
+        <v>5.002346619737624</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>110.0</t>
+          <t>Population</t>
         </is>
       </c>
     </row>
@@ -1344,17 +1344,17 @@
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>2.260799669990973e-09</v>
+        <v>0.001085199268123892</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>1.140919664052125e-11</v>
+        <v>0.0005243713367589965</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>8.798934714180257e-12</v>
+        <v>0.0007120750038725259</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>111.0</t>
+          <t>103.0</t>
         </is>
       </c>
     </row>
@@ -1364,18 +1364,18 @@
           <t>Shapiro-Wilk p-value</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>0.0796032618562352</v>
+      <c r="B45" s="1" t="n">
+        <v>3.960936800888079e-06</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>0.001935061585186412</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.08551438518087148</v>
+        <v>6.733635386712545e-13</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>4.31025855760876e-10</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>112.0</t>
+          <t>107.0</t>
         </is>
       </c>
     </row>
@@ -1386,17 +1386,17 @@
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>0.0001384470590045643</v>
+        <v>6.728910417804427e-16</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>1.550487553459475e-10</v>
+        <v>3.862883336713341e-18</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>6.78051112717476e-09</v>
+        <v>2.761431833853513e-18</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>204.0</t>
+          <t>110.0</t>
         </is>
       </c>
     </row>
@@ -1407,17 +1407,17 @@
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>2.795875430630323e-05</v>
+        <v>0.003295854386857972</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>5.624097161474067e-08</v>
+        <v>1.161067947314952e-08</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>2.040167437664363e-06</v>
+        <v>4.980100390819027e-09</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>207.0</t>
+          <t>111.0</t>
         </is>
       </c>
     </row>
@@ -1427,18 +1427,18 @@
           <t>Shapiro-Wilk p-value</t>
         </is>
       </c>
-      <c r="B48" s="1" t="n">
-        <v>3.999186551070828e-08</v>
+      <c r="B48" t="n">
+        <v>0.05604854033554963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>7.276450121709636e-08</v>
-      </c>
-      <c r="D48" s="1" t="n">
-        <v>1.760700182836116e-07</v>
+        <v>0.00272450034980737</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.05133314158979364</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>302.0</t>
+          <t>112.0</t>
         </is>
       </c>
     </row>
@@ -1449,17 +1449,17 @@
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>2.784931282688614e-05</v>
+        <v>7.843344502619338e-06</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>0.0001019958915376107</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.1056421419266968</v>
+        <v>8.187569484030015e-17</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>3.809612027660117e-12</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>307.0</t>
+          <t>204.0</t>
         </is>
       </c>
     </row>
@@ -1470,17 +1470,17 @@
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>1.419238952155039e-22</v>
+        <v>2.030752821075546e-05</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>2.410834027144558e-25</v>
+        <v>6.166551432244007e-08</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>7.630413082158903e-23</v>
+        <v>1.462863604063965e-06</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>308.0</t>
+          <t>207.0</t>
         </is>
       </c>
     </row>
@@ -1491,17 +1491,17 @@
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>2.763139718135498e-05</v>
+        <v>7.278733252979901e-07</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>1.232316893667504e-06</v>
+        <v>4.997180464781955e-07</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>6.348147497990974e-06</v>
+        <v>1.083836636414288e-06</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>311.0</t>
+          <t>302.0</t>
         </is>
       </c>
     </row>
@@ -1511,18 +1511,18 @@
           <t>Shapiro-Wilk p-value</t>
         </is>
       </c>
-      <c r="B52" s="1" t="n">
-        <v>7.483355104195122e-09</v>
+      <c r="B52" t="n">
+        <v>0.3470366405058753</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>1.771207459062165e-13</v>
-      </c>
-      <c r="D52" s="1" t="n">
-        <v>5.813170994109248e-14</v>
+        <v>0.007036141097940297</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.2150860652371306</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>312.0</t>
+          <t>307.0</t>
         </is>
       </c>
     </row>
@@ -1533,101 +1533,101 @@
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>2.488500581163863e-49</v>
+        <v>3.674590092010453e-12</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>9.454275626655254e-67</v>
+        <v>6.732107843208266e-16</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>3.950161394196257e-36</v>
+        <v>3.632261540717559e-15</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Population</t>
+          <t>308.0</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Std</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>4.288481325360145e-05</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.07430520447018296</v>
-      </c>
-      <c r="D54" t="n">
-        <v>30.79596071000246</v>
+          <t>Shapiro-Wilk p-value</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>2.436255708666497e-13</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>6.949853741138242e-26</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>2.274218469071623e-16</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>103.0</t>
+          <t>311.0</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Std</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>5.06460114505485e-06</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.2956145406048577</v>
-      </c>
-      <c r="D55" t="n">
-        <v>26.77080759816235</v>
+          <t>Shapiro-Wilk p-value</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>0.002331108995534974</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>0.0001260970590666061</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>5.685429079168877e-06</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>107.0</t>
+          <t>312.0</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Std</t>
+          <t>Shapiro-Wilk p-value</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>8.253133594963847e-05</v>
+        <v>0.5453410483570046</v>
       </c>
       <c r="C56" t="n">
-        <v>0.001488270677240135</v>
+        <v>0.06860006046269897</v>
       </c>
       <c r="D56" t="n">
-        <v>0.87472025096344</v>
+        <v>0.06476664922536503</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>110.0</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Std</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>8.239418931392766e-05</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.05009634398646024</v>
-      </c>
-      <c r="D57" t="n">
-        <v>24.92355512091733</v>
+          <t>Shapiro-Wilk p-value</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>2.973523324733121e-40</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>1.984834746364781e-64</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>1.904324110948911e-35</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>111.0</t>
+          <t>Population</t>
         </is>
       </c>
     </row>
@@ -1638,17 +1638,17 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.888434141598988e-06</v>
+        <v>4.768724159531983e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4101341238961991</v>
+        <v>0.0565729928602581</v>
       </c>
       <c r="D58" t="n">
-        <v>22.65740946591717</v>
+        <v>29.71495672907955</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>112.0</t>
+          <t>103.0</t>
         </is>
       </c>
     </row>
@@ -1659,17 +1659,17 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0001861517568146969</v>
+        <v>3.46982211570958e-06</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01261024456885628</v>
+        <v>0.281712411399128</v>
       </c>
       <c r="D59" t="n">
-        <v>23.93026222939756</v>
+        <v>26.10019251850019</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>204.0</t>
+          <t>107.0</t>
         </is>
       </c>
     </row>
@@ -1680,17 +1680,17 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3.986586415561978e-05</v>
+        <v>0.0001415135817421013</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1119143202146569</v>
+        <v>0.04585496981355627</v>
       </c>
       <c r="D60" t="n">
-        <v>24.88844370869938</v>
+        <v>22.40849090963653</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>207.0</t>
+          <t>110.0</t>
         </is>
       </c>
     </row>
@@ -1701,17 +1701,17 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>9.059723651132714e-07</v>
+        <v>9.129672342032718e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>2.702538123965967</v>
+        <v>0.04569063392641799</v>
       </c>
       <c r="D61" t="n">
-        <v>26.96219637817887</v>
+        <v>23.20635983465138</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>302.0</t>
+          <t>111.0</t>
         </is>
       </c>
     </row>
@@ -1722,17 +1722,17 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1.245027461975116e-07</v>
+        <v>2.919914201838599e-06</v>
       </c>
       <c r="C62" t="n">
-        <v>16.3991129077512</v>
+        <v>0.4217005826261338</v>
       </c>
       <c r="D62" t="n">
-        <v>27.26062146477138</v>
+        <v>22.95733898277566</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>307.0</t>
+          <t>112.0</t>
         </is>
       </c>
     </row>
@@ -1743,17 +1743,17 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>7.864283716929695e-05</v>
+        <v>0.0002113709855836762</v>
       </c>
       <c r="C63" t="n">
-        <v>0.06295450239905137</v>
+        <v>0.01642080581155523</v>
       </c>
       <c r="D63" t="n">
-        <v>25.01259603935515</v>
+        <v>25.16098728635307</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>308.0</t>
+          <t>204.0</t>
         </is>
       </c>
     </row>
@@ -1764,17 +1764,17 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>7.216070019131614e-05</v>
+        <v>4.00858342897751e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>0.05252449683262919</v>
+        <v>0.1109436612251607</v>
       </c>
       <c r="D64" t="n">
-        <v>26.89045022189096</v>
+        <v>25.07154301095892</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>311.0</t>
+          <t>207.0</t>
         </is>
       </c>
     </row>
@@ -1785,17 +1785,17 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>5.112114240735882e-06</v>
+        <v>9.569074221938604e-07</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1061964099807733</v>
+        <v>2.717125788616999</v>
       </c>
       <c r="D65" t="n">
-        <v>21.78832925979565</v>
+        <v>27.07198975146596</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>312.0</t>
+          <t>302.0</t>
         </is>
       </c>
     </row>
@@ -1806,22 +1806,127 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.0001635639820661466</v>
+        <v>7.246469487741605e-08</v>
       </c>
       <c r="C66" t="n">
-        <v>3.855553012011451</v>
+        <v>17.7620860138485</v>
       </c>
       <c r="D66" t="n">
-        <v>25.97809088936552</v>
+        <v>27.18640704448926</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
+          <t>307.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>5.653743504727379e-05</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.05992614542390148</v>
+      </c>
+      <c r="D67" t="n">
+        <v>25.72622840196295</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.0002717583734131078</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.199748682084192</v>
+      </c>
+      <c r="D68" t="n">
+        <v>25.39434788580496</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>4.440890595747568e-06</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.0296998250879694</v>
+      </c>
+      <c r="D69" t="n">
+        <v>5.499326665357159</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>312.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>4.519457788666598e-05</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.1407646286974161</v>
+      </c>
+      <c r="D70" t="n">
+        <v>27.9101807063379</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.0002348336195558659</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3.715540059338758</v>
+      </c>
+      <c r="D71" t="n">
+        <v>25.70396349232148</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>Population</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B14">
+  <conditionalFormatting sqref="B2:B15">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1833,7 +1938,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C14">
+  <conditionalFormatting sqref="C2:C15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1845,7 +1950,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D14">
+  <conditionalFormatting sqref="D2:D15">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1857,7 +1962,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:B27">
+  <conditionalFormatting sqref="B16:B29">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1869,7 +1974,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C27">
+  <conditionalFormatting sqref="C16:C29">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1881,7 +1986,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D27">
+  <conditionalFormatting sqref="D16:D29">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1893,7 +1998,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B40">
+  <conditionalFormatting sqref="B30:B43">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1905,7 +2010,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C40">
+  <conditionalFormatting sqref="C30:C43">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1917,7 +2022,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D40">
+  <conditionalFormatting sqref="D30:D43">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1929,7 +2034,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54:B66">
+  <conditionalFormatting sqref="B58:B71">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1941,7 +2046,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54:C66">
+  <conditionalFormatting sqref="C58:C71">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1953,7 +2058,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D66">
+  <conditionalFormatting sqref="D58:D71">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
